--- a/biology/Botanique/Rupert_Charles_Barneby/Rupert_Charles_Barneby.xlsx
+++ b/biology/Botanique/Rupert_Charles_Barneby/Rupert_Charles_Barneby.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rupert Charles Barneby (né le 6 octobre 1911 et mort le 5 décembre 2000) est un botaniste d'origine britannique, autodidacte, spécialiste des Fabaceae (Légumineuses).
 </t>
@@ -511,7 +523,9 @@
           <t>Éléments biographiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Barneby a été employé par le Jardin botanique de New York des années 1950 jusqu'à peu avant sa mort.
 À côté des Fabaceae, il a également travaillé sur les Menispermaceae et de nombreuses autres familles. Barneby a abondamment publié, nommé et décrit plus de 1 100 nouvelles espèces.
@@ -544,7 +558,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">25 espèces portent son nom ainsi que quatre genres: Barnebya (en), Barnebyella, Barnebydendron et Rupertia.
 Il a reçu de nombreux prix prestigieux botaniques, dont The New York Botanical Garden's Henry Allan Gleason Award (1980), The American Society of Plant Taxonomists' Asa Gray Award (1989), The International Association for Plant Taxonomy's Engler Silver Medal (1992) et The International Botanical Congress's Millennium Botany Award (1999).
@@ -576,7 +592,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Atlas of North American Astragalus, dans Memoirs of the New York Botanical Garden, vol. 13, New York, 1964, 1188 p.
 Daleae Imagines : An Illustrated Revision of Errazurizia Philippi, Psorothamnus Rydberg, Marina Liebmann, and Dalea Lucanus emend. Barneby, including all species of Leguminosae tribe Amorpheae Borissova ever referred to Dalea, dans Memoirs of the New York Botanical Garden, vol. 27, New York, 1977, 892 p.  (ISBN 0893270024)
